--- a/sample_symptom.xlsx
+++ b/sample_symptom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i871655/Desktop/patient report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3583B9-0934-6C47-A778-79D46B8580C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9694E882-8B3B-C242-873E-7D4A41B9CC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16220" xr2:uid="{33214C13-0290-8B44-90EF-A88B3B7ADF8B}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
